--- a/modeling/results/results_text.xlsx
+++ b/modeling/results/results_text.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Model</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Std F1</t>
   </si>
   <si>
-    <t>Adaboost</t>
-  </si>
-  <si>
     <t>MLP</t>
   </si>
   <si>
@@ -52,19 +49,16 @@
     <t>baseline</t>
   </si>
   <si>
-    <t>AdaBoostClassifier(n_estimators=128)</t>
-  </si>
-  <si>
-    <t>MLPClassifier(early_stopping=True, hidden_layer_sizes=(32, 32, 32, 32))</t>
-  </si>
-  <si>
-    <t>MultinomialNB(alpha=0.1)</t>
-  </si>
-  <si>
-    <t>RandomForestClassifier(n_estimators=128, n_jobs=8)</t>
-  </si>
-  <si>
-    <t>SVC(max_iter=512)</t>
+    <t>MLPClassifier(batch_size=32, early_stopping=True, max_iter=512)</t>
+  </si>
+  <si>
+    <t>MultinomialNB()</t>
+  </si>
+  <si>
+    <t>RandomForestClassifier(max_features='sqrt', n_jobs=8)</t>
+  </si>
+  <si>
+    <t>SVC(degree=1, max_iter=1024)</t>
   </si>
   <si>
     <t>Majority</t>
@@ -425,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,16 +450,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>0.7677824267782427</v>
+        <v>0.7885835095137421</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.6712700507425513</v>
+        <v>0.7075336367233874</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -476,16 +470,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>0.7866108786610879</v>
+        <v>0.5940803382663847</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.6908855751673768</v>
+        <v>0.5777571136321369</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -496,16 +490,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>0.5836820083682008</v>
+        <v>0.7822410147991543</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5665614078256075</v>
+        <v>0.6978273139447617</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -516,16 +510,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0.7824267782426778</v>
+        <v>0.7864693446088795</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.6949210791172644</v>
+        <v>0.6999428438632523</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -536,38 +530,18 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>0.7907949790794979</v>
+        <v>0.7463002114164905</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.7028915243280873</v>
+        <v>0.427360774818402</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>0.7489539748953975</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0.4282296650717703</v>
-      </c>
-      <c r="F7">
         <v>0</v>
       </c>
     </row>
